--- a/biology/Zoologie/Richard_Böhm/Richard_Böhm.xlsx
+++ b/biology/Zoologie/Richard_Böhm/Richard_Böhm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Richard_B%C3%B6hm</t>
+          <t>Richard_Böhm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Johann Constantin Böhm est un zoologiste et un explorateur allemand, né le 1er octobre 1854 à Berlin et mort le 27 mars 1884 à Katapana, Katanga.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Richard_B%C3%B6hm</t>
+          <t>Richard_Böhm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est le fils de Ludwig Böhm et de Franziska Louise Böhm née Meyerlinck. Il étudie la zoologie auprès d’Ernst Haeckel (1834-1919) à l’université d'Iéna où il obtient son doctorat en 1877. Il part explorer la région de Zanzibar et atteint la rive est du lac Tanganyika, puis le sud-ouest du Lac Upemba qu’il découvre (1880-1884).
 Sa correspondance paraît sous le titre de Von Sansibar zum Tanganjika (1888). Böhm signe de nombreux articles pour le Journal für Ornithologie de 1882 à 1887. Il meurt des suites d’une attaque de paludisme. 
